--- a/Project/DATA/NEISS/column_codes.xlsx
+++ b/Project/DATA/NEISS/column_codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcorbett/Boston University/MET CS677 - Data Science with Python/Project/DATA/NEISS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcorbett/Boston University/MET_CS677_DataScienceWithPython/Project/DATA/NEISS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8825ABC-B3C1-1642-8811-8BF2D002A3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1E774-BFE6-4C41-9C31-0240A5722E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1160" windowWidth="22820" windowHeight="14280" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="620" windowWidth="22820" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sex" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="898">
   <si>
     <t>Male</t>
   </si>
@@ -2720,6 +2720,12 @@
   </si>
   <si>
     <t>Medium Hospital</t>
+  </si>
+  <si>
+    <t>**  Mobile/manufactured homes</t>
+  </si>
+  <si>
+    <t>** Alcohol (beverage)</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C19DECC-5D2D-B146-8B85-0D041351B028}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3202,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3690,9 +3696,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B802"/>
+  <dimension ref="A1:B804"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
+      <selection activeCell="B650" sqref="B650"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8669,1449 +8677,1465 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B622" t="s">
-        <v>679</v>
+        <v>896</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B623" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624">
-        <v>1854</v>
+        <v>1843</v>
       </c>
       <c r="B624" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B625" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="B626" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B627" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B628" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B629" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="B630" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B631" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="B632" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B633" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="B634" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B635" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B636" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B637" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B638" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B639" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B640" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B641" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B642" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B643" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B644" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B645" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B646" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B647" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B648" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649">
-        <v>1913</v>
+        <v>1899</v>
       </c>
       <c r="B649" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650">
-        <v>1914</v>
+        <v>1903</v>
       </c>
       <c r="B650" t="s">
-        <v>707</v>
+        <v>897</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B651" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B652" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="B653" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="B654" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="B655" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B656" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B657" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B658" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B659" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B660" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="B661" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="B662" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B663" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664">
-        <v>2300</v>
+        <v>1935</v>
       </c>
       <c r="B664" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665">
-        <v>2640</v>
+        <v>1936</v>
       </c>
       <c r="B665" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="B666" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667">
-        <v>3202</v>
+        <v>2640</v>
       </c>
       <c r="B667" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="B668" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669">
-        <v>3215</v>
+        <v>3202</v>
       </c>
       <c r="B669" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670">
-        <v>3216</v>
+        <v>3203</v>
       </c>
       <c r="B670" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="B671" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="B672" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="B673" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="B674" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="B675" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="B676" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="B677" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678">
-        <v>3229</v>
+        <v>3223</v>
       </c>
       <c r="B678" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679">
-        <v>3230</v>
+        <v>3224</v>
       </c>
       <c r="B679" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="B680" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="B681" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B682" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="B683" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684">
-        <v>3245</v>
+        <v>3235</v>
       </c>
       <c r="B684" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685">
-        <v>3246</v>
+        <v>3236</v>
       </c>
       <c r="B685" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="B686" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="B687" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="B688" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="B689" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="B690" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="B691" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="B692" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="B693" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="B694" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="B695" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="B696" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="B697" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="B698" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="B699" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="B700" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701">
-        <v>3265</v>
+        <v>3261</v>
       </c>
       <c r="B701" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>3272</v>
+        <v>3262</v>
       </c>
       <c r="B702" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703">
-        <v>3273</v>
+        <v>3265</v>
       </c>
       <c r="B703" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="B704" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="B705" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="B706" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="B707" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="B708" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709">
-        <v>3282</v>
+        <v>3278</v>
       </c>
       <c r="B709" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710">
-        <v>3283</v>
+        <v>3279</v>
       </c>
       <c r="B710" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="B711" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712">
-        <v>3285</v>
+        <v>3283</v>
       </c>
       <c r="B712" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="B713" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="B714" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="B715" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="B716" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="B717" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="B718" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="B719" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="B720" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="B721" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B722" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="B723" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="B724" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725">
-        <v>4002</v>
+        <v>3297</v>
       </c>
       <c r="B725" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726">
-        <v>4004</v>
+        <v>3299</v>
       </c>
       <c r="B726" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="B727" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728">
-        <v>4008</v>
+        <v>4004</v>
       </c>
       <c r="B728" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="B729" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="B730" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B731" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732">
-        <v>4013</v>
+        <v>4010</v>
       </c>
       <c r="B732" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733">
-        <v>4014</v>
+        <v>4011</v>
       </c>
       <c r="B733" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734">
-        <v>4016</v>
+        <v>4013</v>
       </c>
       <c r="B734" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735">
-        <v>4025</v>
+        <v>4014</v>
       </c>
       <c r="B735" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736">
-        <v>4030</v>
+        <v>4016</v>
       </c>
       <c r="B736" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737">
-        <v>4039</v>
+        <v>4025</v>
       </c>
       <c r="B737" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738">
-        <v>4041</v>
+        <v>4030</v>
       </c>
       <c r="B738" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739">
-        <v>4042</v>
+        <v>4039</v>
       </c>
       <c r="B739" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740">
-        <v>4045</v>
+        <v>4041</v>
       </c>
       <c r="B740" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741">
-        <v>4047</v>
+        <v>4042</v>
       </c>
       <c r="B741" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742">
-        <v>4050</v>
+        <v>4045</v>
       </c>
       <c r="B742" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="B743" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744">
-        <v>4054</v>
+        <v>4050</v>
       </c>
       <c r="B744" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="B745" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="B746" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="B747" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="B748" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749">
-        <v>4060</v>
+        <v>4057</v>
       </c>
       <c r="B749" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750">
-        <v>4061</v>
+        <v>4058</v>
       </c>
       <c r="B750" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="B751" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="B752" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="B753" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="B754" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="B755" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="B756" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="B757" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="B758" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="B759" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="B760" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761">
-        <v>4074</v>
+        <v>4070</v>
       </c>
       <c r="B761" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762">
-        <v>4075</v>
+        <v>4071</v>
       </c>
       <c r="B762" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="B763" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="B764" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="B765" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="B766" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="B767" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="B768" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="B769" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B770" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B771" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772">
-        <v>4802</v>
+        <v>4083</v>
       </c>
       <c r="B772" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773">
-        <v>5001</v>
+        <v>4084</v>
       </c>
       <c r="B773" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774">
-        <v>5005</v>
+        <v>4802</v>
       </c>
       <c r="B774" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775">
-        <v>5006</v>
+        <v>5001</v>
       </c>
       <c r="B775" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B776" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777">
-        <v>5010</v>
+        <v>5006</v>
       </c>
       <c r="B777" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778">
-        <v>5011</v>
+        <v>5007</v>
       </c>
       <c r="B778" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779">
-        <v>5013</v>
+        <v>5010</v>
       </c>
       <c r="B779" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780">
-        <v>5015</v>
+        <v>5011</v>
       </c>
       <c r="B780" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="B781" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782">
-        <v>5017</v>
+        <v>5015</v>
       </c>
       <c r="B782" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783">
-        <v>5018</v>
+        <v>5016</v>
       </c>
       <c r="B783" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784">
-        <v>5019</v>
+        <v>5017</v>
       </c>
       <c r="B784" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785">
-        <v>5020</v>
+        <v>5018</v>
       </c>
       <c r="B785" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="B786" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787">
-        <v>5029</v>
+        <v>5020</v>
       </c>
       <c r="B787" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788">
-        <v>5030</v>
+        <v>5021</v>
       </c>
       <c r="B788" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="B789" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B790" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="B791" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="B792" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="B793" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794">
-        <v>5036</v>
+        <v>5034</v>
       </c>
       <c r="B794" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="B795" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796">
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="B796" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797">
-        <v>5040</v>
+        <v>5037</v>
       </c>
       <c r="B797" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798">
-        <v>5041</v>
+        <v>5038</v>
       </c>
       <c r="B798" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="B799" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="B800" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="B801" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802">
+        <v>5043</v>
+      </c>
+      <c r="B802" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>5044</v>
+      </c>
+      <c r="B803" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804">
         <v>5555</v>
       </c>
-      <c r="B802" t="s">
+      <c r="B804" t="s">
         <v>859</v>
       </c>
     </row>
@@ -10124,7 +10148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B802"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16716,7 +16742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
